--- a/biology/Zoologie/Hemikyptha/Hemikyptha.xlsx
+++ b/biology/Zoologie/Hemikyptha/Hemikyptha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hemikyptha rassemble des insectes hémiptères de la famille des Membracidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Hemikyptha se rencontrent en Amérique du Sud et en particulier au Brésil[1],[2], au Pérou[3], et en Guyane[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Hemikyptha se rencontrent en Amérique du Sud et en particulier au Brésil au Pérou, et en Guyane.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Hemikyptha peuvent être observées dans les forêts semi-décidues saisonnières[2] et les forêts humides[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Hemikyptha peuvent être observées dans les forêts semi-décidues saisonnières et les forêts humides.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hemikyptha a été décrit en 1927 par l'entomologiste américain Zeno Payne Metcalf avec pour espèce type Hemikyptha punctata[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hemikyptha a été décrit en 1927 par l'entomologiste américain Zeno Payne Metcalf avec pour espèce type Hemikyptha punctata.
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hemikyptha présente une double épine en forme de cornes[6] sur son pronotum[7].
-Le pronotum, testacé, est grisâtre à marron rougeâtre ou noir et est parsemé de points blanchâtres à jaunes. Les bords latéraux du pronotum sont concolores jaune. Les cornes sont longues, minces ou fortes avec les bords presque parallèles et acuminées. Le dorsum descend progressivement jusqu'à l'apex mais peut brusquement décliner obliquement en arrière à partir du milieu chez Hemikyptha scutelligera[6].
-Les élytres sont plus longues que l'abdomen[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hemikyptha présente une double épine en forme de cornes sur son pronotum.
+Le pronotum, testacé, est grisâtre à marron rougeâtre ou noir et est parsemé de points blanchâtres à jaunes. Les bords latéraux du pronotum sont concolores jaune. Les cornes sont longues, minces ou fortes avec les bords presque parallèles et acuminées. Le dorsum descend progressivement jusqu'à l'apex mais peut brusquement décliner obliquement en arrière à partir du milieu chez Hemikyptha scutelligera.
+Les élytres sont plus longues que l'abdomen.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme tous les membracides, les espèces du genre Hemikyptha sont phytophages et se nourrissent exclusivement de la sève des plantes[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme tous les membracides, les espèces du genre Hemikyptha sont phytophages et se nourrissent exclusivement de la sève des plantes.
 </t>
         </is>
       </c>
@@ -668,7 +690,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Metcalf, Z. P. 1927. Homopterological gleanings No. 2. The types of certain genera of Membracidae. Entomological News, 38: 14–17.(BHL)</t>
         </is>
@@ -698,18 +722,20 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des 9 espèces du genre selon 3I[9] :
-Hemikyptha atrata Fonseca &amp; Diringshofen, 1969[10]
-Hemikyptha braziliensis (Fabricius, 1775)[11]
-Hemikyptha compressicornis (Fairmaire, 1846)[12],[Note 1]
-Hemikyptha crux (Linnaeus, 1758)[13]
-Hemikyptha durantoni Arnaud, 2002[14]
-Hemikyptha gigas Fonseca, 1935[15]
-Hemikyptha marginata (Fabricius, 1775)[11]
-Hemikyptha punctata (Fabricius, 1775)[11]
-Hemikyptha scutelligera (Lesson, 1832)[16]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des 9 espèces du genre selon 3I :
+Hemikyptha atrata Fonseca &amp; Diringshofen, 1969
+Hemikyptha braziliensis (Fabricius, 1775)
+Hemikyptha compressicornis (Fairmaire, 1846),[Note 1]
+Hemikyptha crux (Linnaeus, 1758)
+Hemikyptha durantoni Arnaud, 2002
+Hemikyptha gigas Fonseca, 1935
+Hemikyptha marginata (Fabricius, 1775)
+Hemikyptha punctata (Fabricius, 1775)
+Hemikyptha scutelligera (Lesson, 1832)
 </t>
         </is>
       </c>
